--- a/Project 2/Documents/OctaveDocuments/SalterOutput/output3SaltedGraph.xlsx
+++ b/Project 2/Documents/OctaveDocuments/SalterOutput/output3SaltedGraph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rance\OneDrive\Documents\My Files\Other\College Class Materials\ThirdYearSpring\Probability and Applied Statistics\Projects\Project 2\Documents\OctaveDocuments\SalterOutput\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rance\OneDrive\Documents\My Files\Other\College Class Materials\ThirdYearSpring\Probability and Applied Statistics\Projects\Project 2\Octave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63B5EDD2-E3FD-45BD-B14D-2E24525027F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5493F249-5CE7-40C5-93C2-599C8F153E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{C15E5D68-88B8-4FB8-B497-79B1969A76FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{C1408E56-7804-40A5-A48F-F1E6A119D4C0}"/>
   </bookViews>
   <sheets>
     <sheet name="output3Salted" sheetId="1" r:id="rId1"/>
@@ -593,13 +593,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Salted Output (Range: 1000</a:t>
+              <a:t>Salted Output (Range: 1000 - 5000)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> - 5000)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -979,304 +974,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1212</c:v>
+                  <c:v>4156</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1657</c:v>
+                  <c:v>-1353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3904</c:v>
+                  <c:v>2501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4910</c:v>
+                  <c:v>1368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1814</c:v>
+                  <c:v>-4059</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1782</c:v>
+                  <c:v>3499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3191</c:v>
+                  <c:v>-1738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2786</c:v>
+                  <c:v>2909</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5460</c:v>
+                  <c:v>3706</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-641</c:v>
+                  <c:v>-898</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2197</c:v>
+                  <c:v>-2041</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3351</c:v>
+                  <c:v>-1323</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1757</c:v>
+                  <c:v>-2314</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2716</c:v>
+                  <c:v>3306</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>416</c:v>
+                  <c:v>-1508</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5652</c:v>
+                  <c:v>6676</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4744</c:v>
+                  <c:v>829</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3639</c:v>
+                  <c:v>4632</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-445</c:v>
+                  <c:v>-599</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-836</c:v>
+                  <c:v>5709</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4056</c:v>
+                  <c:v>-382</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6568</c:v>
+                  <c:v>-300</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7088</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>467</c:v>
+                  <c:v>2564</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-528</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-165</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9823</c:v>
+                  <c:v>2937</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7495</c:v>
+                  <c:v>8623</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2155</c:v>
+                  <c:v>9968</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5055</c:v>
+                  <c:v>10486</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11255</c:v>
+                  <c:v>4384</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3101</c:v>
+                  <c:v>8760</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2922</c:v>
+                  <c:v>5912</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12204</c:v>
+                  <c:v>5577</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12281</c:v>
+                  <c:v>5257</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10112</c:v>
+                  <c:v>7717</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7898</c:v>
+                  <c:v>14310</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11967</c:v>
+                  <c:v>14186</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8440</c:v>
+                  <c:v>5704</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>13960</c:v>
+                  <c:v>9438</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>16365</c:v>
+                  <c:v>15610</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9727</c:v>
+                  <c:v>16517</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>17076</c:v>
+                  <c:v>14283</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>15317</c:v>
+                  <c:v>10850</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>15319</c:v>
+                  <c:v>9791</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>10809</c:v>
+                  <c:v>9851</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>19488</c:v>
+                  <c:v>12543</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>11235</c:v>
+                  <c:v>18889</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>18177</c:v>
+                  <c:v>12299</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>14013</c:v>
+                  <c:v>14981</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>14434</c:v>
+                  <c:v>15156</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>20506</c:v>
+                  <c:v>21243</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>16063</c:v>
+                  <c:v>16933</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>15215</c:v>
+                  <c:v>16720</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>25393</c:v>
+                  <c:v>25166</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18143</c:v>
+                  <c:v>17304</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>20383</c:v>
+                  <c:v>18973</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>21226</c:v>
+                  <c:v>21304</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>21059</c:v>
+                  <c:v>20052</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>21930</c:v>
+                  <c:v>28739</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>28811</c:v>
+                  <c:v>27228</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>27731</c:v>
+                  <c:v>31262</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>28769</c:v>
+                  <c:v>28500</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>24879</c:v>
+                  <c:v>24500</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>30765</c:v>
+                  <c:v>33637</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>25303</c:v>
+                  <c:v>32072</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>33493</c:v>
+                  <c:v>28999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>33685</c:v>
+                  <c:v>33161</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>37883</c:v>
+                  <c:v>36752</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>36661</c:v>
+                  <c:v>35689</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>32945</c:v>
+                  <c:v>38143</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>39904</c:v>
+                  <c:v>31458</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>34418</c:v>
+                  <c:v>38633</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>39250</c:v>
+                  <c:v>41821</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>41389</c:v>
+                  <c:v>40771</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>37019</c:v>
+                  <c:v>41197</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>39325</c:v>
+                  <c:v>45377</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>39686</c:v>
+                  <c:v>40082</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>38506</c:v>
+                  <c:v>41162</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>49051</c:v>
+                  <c:v>45697</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>49567</c:v>
+                  <c:v>41396</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>43678</c:v>
+                  <c:v>44137</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>48830</c:v>
+                  <c:v>45337</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>47287</c:v>
+                  <c:v>51169</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>51899</c:v>
+                  <c:v>51172</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>53195</c:v>
+                  <c:v>49695</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>55960</c:v>
+                  <c:v>55770</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>52221</c:v>
+                  <c:v>55884</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>52856</c:v>
+                  <c:v>53568</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>54481</c:v>
+                  <c:v>59990</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>61838</c:v>
+                  <c:v>60625</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>55707</c:v>
+                  <c:v>54437</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>62457</c:v>
+                  <c:v>55344</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>65249</c:v>
+                  <c:v>59865</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>64607</c:v>
+                  <c:v>66895</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>67307</c:v>
+                  <c:v>66477</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>67035</c:v>
+                  <c:v>68535</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>71406</c:v>
+                  <c:v>68905</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>72700</c:v>
+                  <c:v>70196</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>65463</c:v>
+                  <c:v>72986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1284,7 +1279,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F33E-4981-A74D-D4963693F70E}"/>
+              <c16:uniqueId val="{00000000-7E81-499C-85D8-008F61058C26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1296,11 +1291,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1743791424"/>
-        <c:axId val="1743792864"/>
+        <c:axId val="273513103"/>
+        <c:axId val="273498223"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1743791424"/>
+        <c:axId val="273513103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,12 +1407,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1743792864"/>
+        <c:crossAx val="273498223"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1743792864"/>
+        <c:axId val="273498223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1524,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1743791424"/>
+        <c:crossAx val="273513103"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2139,22 +2134,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:colOff>327660</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4FE9C6-4E19-30B1-B706-9FED5E491766}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB60F9E-0067-221A-864F-3E3EC978BE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F86A983-671B-4D54-AE2C-703995E5A6FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E2A5C4-C6A9-496B-9909-4F33FCF2AA4B}">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2505,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1212</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2513,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1657</v>
+        <v>-1353</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2521,7 +2516,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3904</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2529,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4910</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2537,7 +2532,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1814</v>
+        <v>-4059</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2545,7 +2540,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1782</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2553,7 +2548,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3191</v>
+        <v>-1738</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2561,7 +2556,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2786</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2569,7 +2564,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5460</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2577,7 +2572,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-641</v>
+        <v>-898</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2585,7 +2580,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2197</v>
+        <v>-2041</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2593,7 +2588,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-3351</v>
+        <v>-1323</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2601,7 +2596,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-1757</v>
+        <v>-2314</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2609,7 +2604,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-2716</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2617,7 +2612,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>416</v>
+        <v>-1508</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2625,7 +2620,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>5652</v>
+        <v>6676</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2633,7 +2628,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4744</v>
+        <v>829</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2641,7 +2636,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3639</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2649,7 +2644,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-445</v>
+        <v>-599</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2657,7 +2652,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-836</v>
+        <v>5709</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2665,7 +2660,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>4056</v>
+        <v>-382</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2673,7 +2668,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>6568</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2681,7 +2676,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7088</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2689,7 +2684,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>467</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2697,7 +2692,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-528</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2705,7 +2700,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-165</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2713,7 +2708,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>9823</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2721,7 +2716,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7495</v>
+        <v>8623</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2729,7 +2724,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2155</v>
+        <v>9968</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2737,7 +2732,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>5055</v>
+        <v>10486</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2745,7 +2740,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>11255</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2753,7 +2748,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>3101</v>
+        <v>8760</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2761,7 +2756,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2922</v>
+        <v>5912</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2769,7 +2764,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>12204</v>
+        <v>5577</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2777,7 +2772,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>12281</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2785,7 +2780,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>10112</v>
+        <v>7717</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2793,7 +2788,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7898</v>
+        <v>14310</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2801,7 +2796,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>11967</v>
+        <v>14186</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2809,7 +2804,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>8440</v>
+        <v>5704</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2817,7 +2812,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>13960</v>
+        <v>9438</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2825,7 +2820,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>16365</v>
+        <v>15610</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2833,7 +2828,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>9727</v>
+        <v>16517</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2841,7 +2836,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>17076</v>
+        <v>14283</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2849,7 +2844,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>15317</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2857,7 +2852,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>15319</v>
+        <v>9791</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2865,7 +2860,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>10809</v>
+        <v>9851</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2873,7 +2868,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>19488</v>
+        <v>12543</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2881,7 +2876,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>11235</v>
+        <v>18889</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2889,7 +2884,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>18177</v>
+        <v>12299</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2897,7 +2892,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>14013</v>
+        <v>14981</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2905,7 +2900,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>14434</v>
+        <v>15156</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2913,7 +2908,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>20506</v>
+        <v>21243</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2921,7 +2916,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>16063</v>
+        <v>16933</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2929,7 +2924,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>15215</v>
+        <v>16720</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2937,7 +2932,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>25393</v>
+        <v>25166</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2945,7 +2940,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>18143</v>
+        <v>17304</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2953,7 +2948,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>20383</v>
+        <v>18973</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2961,7 +2956,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>21226</v>
+        <v>21304</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2969,7 +2964,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>21059</v>
+        <v>20052</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2977,7 +2972,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>21930</v>
+        <v>28739</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2985,7 +2980,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>28811</v>
+        <v>27228</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2993,7 +2988,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>27731</v>
+        <v>31262</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -3001,7 +2996,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>28769</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -3009,7 +3004,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>24879</v>
+        <v>24500</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -3017,7 +3012,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>30765</v>
+        <v>33637</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -3025,7 +3020,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>25303</v>
+        <v>32072</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -3033,7 +3028,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>33493</v>
+        <v>28999</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -3041,7 +3036,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>33685</v>
+        <v>33161</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -3049,7 +3044,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>37883</v>
+        <v>36752</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -3057,7 +3052,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>36661</v>
+        <v>35689</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -3065,7 +3060,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>32945</v>
+        <v>38143</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -3073,7 +3068,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>39904</v>
+        <v>31458</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -3081,7 +3076,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>34418</v>
+        <v>38633</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -3089,7 +3084,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>39250</v>
+        <v>41821</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -3097,7 +3092,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>41389</v>
+        <v>40771</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -3105,7 +3100,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>37019</v>
+        <v>41197</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -3113,7 +3108,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>39325</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -3121,7 +3116,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>39686</v>
+        <v>40082</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -3129,7 +3124,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>38506</v>
+        <v>41162</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -3137,7 +3132,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>49051</v>
+        <v>45697</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -3145,7 +3140,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>49567</v>
+        <v>41396</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -3153,7 +3148,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>43678</v>
+        <v>44137</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -3161,7 +3156,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>48830</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -3169,7 +3164,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>47287</v>
+        <v>51169</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -3177,7 +3172,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>51899</v>
+        <v>51172</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -3185,7 +3180,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>53195</v>
+        <v>49695</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -3193,7 +3188,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>55960</v>
+        <v>55770</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -3201,7 +3196,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>52221</v>
+        <v>55884</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -3209,7 +3204,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>52856</v>
+        <v>53568</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -3217,7 +3212,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>54481</v>
+        <v>59990</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -3225,7 +3220,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>61838</v>
+        <v>60625</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -3233,7 +3228,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>55707</v>
+        <v>54437</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -3241,7 +3236,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>62457</v>
+        <v>55344</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -3249,7 +3244,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>65249</v>
+        <v>59865</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -3257,7 +3252,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>64607</v>
+        <v>66895</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -3265,7 +3260,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>67307</v>
+        <v>66477</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -3273,7 +3268,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>67035</v>
+        <v>68535</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -3281,7 +3276,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>71406</v>
+        <v>68905</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -3289,7 +3284,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>72700</v>
+        <v>70196</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -3297,7 +3292,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>65463</v>
+        <v>72986</v>
       </c>
     </row>
   </sheetData>
